--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -28,6 +28,12 @@
     <t xml:space="preserve">PacketPlayerList</t>
   </si>
   <si>
+    <t xml:space="preserve">$PACKET_ID$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerList</t>
+  </si>
+  <si>
     <t xml:space="preserve">$MEMBER$</t>
   </si>
   <si>
@@ -38,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">プレイヤーリスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">]</t>
   </si>
 </sst>
 </file>
@@ -150,13 +153,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -177,27 +180,33 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="プレイヤー移動" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="他人移動" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -44,6 +46,36 @@
   </si>
   <si>
     <t xml:space="preserve">プレイヤーリスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketPlayerMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vec3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">座標</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketOtherPlayerMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OtherPlayerMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
   </si>
 </sst>
 </file>
@@ -155,11 +187,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="2:2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="3:3 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -217,4 +249,160 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="3:3 B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="3:3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="プレイヤー移動" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="他人移動" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="プレイヤー登場" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="プレイヤー移動" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="他人移動" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="プレイヤー離脱" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -48,34 +50,46 @@
     <t xml:space="preserve">プレイヤーリスト</t>
   </si>
   <si>
+    <t xml:space="preserve">PacketPlayerEnter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerEnter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vec3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">座標</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketPlayerMove</t>
   </si>
   <si>
     <t xml:space="preserve">PlayerMove</t>
   </si>
   <si>
-    <t xml:space="preserve">Vec3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">座標</t>
-  </si>
-  <si>
     <t xml:space="preserve">PacketOtherPlayerMove</t>
   </si>
   <si>
     <t xml:space="preserve">OtherPlayerMove</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">PacketPlayerLeave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerLeave</t>
   </si>
 </sst>
 </file>
@@ -188,10 +202,10 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="3:3 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -258,11 +272,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="3:3 B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -299,8 +313,18 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -314,7 +338,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -327,13 +351,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -344,7 +368,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,7 +376,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,13 +384,84 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,7 +494,78 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/Player.xlsx
+++ b/Packet/PacketData/Player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーリスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -201,11 +201,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -272,11 +272,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -357,7 +357,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -428,7 +428,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -513,7 +513,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
